--- a/selfSheetParam.xlsx
+++ b/selfSheetParam.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ALBERTVILLE (Tournon)</t>
+          <t>ALBERTVILLE (Tournon) test</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ouvert TEST</t>
+          <t>Ouvert</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
